--- a/execl_directory/output_part_6.xlsx
+++ b/execl_directory/output_part_6.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,1100 +446,2156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372768575418862900</t>
+          <t>https://www.douyin.com/video/7232202929594240290</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/64ec76e47d2040948201457c49e7425f~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=gjCiI%2BkL3DKDfh06imKQu%2Biwfmc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/1f06d4db2f274b6b99e4b0530b545712~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yNJ7xY2JmnNsHiN7kAGpex8vp4g%3D</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>不懂发言结构的人，永远赢不了#发言 #上台 #说话 #提升口才 #高情商说话技巧</t>
+          <t>在自然和自然灾害面前，人类始终是渺小的，但我们依然会去选择探求自然，让灾害带来的悲痛与损失不断降低。#512#汶川#地震#灾害#大自然</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372548991105387791</t>
+          <t>https://www.douyin.com/video/7231883973612293411</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/d3e12e4f8a54443aabe38c52b1fc5e01~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=QuqgtktpQz1QLyYZFxPdDzJ3Bls%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/0460d49de2a34dfc8494e899e58246de~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ZYKnvtA3PkLUHt%2BfDD9P59RkGF8%3D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>1338</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>实体店引流拓客其实很简单!#实体店 #引流 #拓客 #商业思维 #创业</t>
+          <t>这个还真不好讲 #孟雨桐#董明珠#格力#直播带货#接班人</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372507258141379855</t>
+          <t>https://www.douyin.com/video/7231152348276591872</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/02b3f85a675b46289e69e8d89553b918~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=lPtfeWycLLyZ8uvu%2FImxJ3vL9Rc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/80db888e10674c9391da6b0511f58716~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=no7xgkdCFe6kqWqi7HNMuO3CnwA%3D</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5978</t>
+          <t>443</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>年轻人怎就迷上了“搭子社交”#搭子 #年轻人 #商业思维 #认知 #恋爱观</t>
+          <t>今天的湖人和勇士的大战上演了精彩的一幕#NBA#湖人#勇士#朗尼沃克#八村垒</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372222725043146024</t>
+          <t>https://www.douyin.com/video/7230774510855736576</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/2515f4d0b0754c4ea20aed3f6f409610~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=BpRwDvMy3QIp6Qk62v04tqJVxJk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/2514ef7a9af74999bf3474918938dc3c~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=KIWjcwXWK6PnbVZ94kueXmdiUCU%3D</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7776</t>
+          <t>824</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>普通人可以买超长期国债吗#国债 #商业 #商业思维 #投资 #认知</t>
+          <t>淄博现象的背后是什么？值得深思 #淄博#烧烤#旅游#五一长假#服务</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372209958659575040</t>
+          <t>https://www.douyin.com/video/7230404395043736832</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://p96-sign.douyinpic.com/tos-cn-i-dy/c2d0ed10d28243548215b7f32495ea85~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=SOGmnWJJfAPOt2emcnnzfrxPagE%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/064886d5935d4664ace05092b7248c08~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=KuuJ2AjGaUXHRaxp0ASo2raoMgo%3D</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>861</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>高情商会说话的人，真的太可怕了#高情商说话技巧 #提升口才 #表达 #好人缘 #人际交往</t>
+          <t>道路交通安全法难道可以改？那还有什么不能改？#违法#旅游#淄博#罚款</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372187897769757986</t>
+          <t>https://www.douyin.com/video/7229663184968355124</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/f2000c4cb19241498ba606c11bc20227~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=LQOMJ4nZzo1KyOaDEfPZLrf3CbI%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813c001/95a3561ea7bb47a2b7adefe8e768e6e2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=tEj3ByeCeHcnPtNLKuZBIh5ZtN4%3D</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1101</t>
+          <t>1552</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>职场中快速晋升的3个技巧#职场 #晋升 #思维 #为人处世 #认知</t>
+          <t>也许最美的318公路也该装一个盖子了#壶口瀑布#旅行#围墙#五一出行#黄河</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372093254780701986</t>
+          <t>https://www.douyin.com/video/7229296087931129088</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/a756f39d50794bfe92bad1b054502234~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=YOg4ed5VhAlffvHjYd%2BOlWxDPHQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/553794d2605b45f79c0ad3e95460f674~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=dNasyvhSxQT8c7OBNnV5ZcRd5Wk%3D</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>947</t>
+          <t>562</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>郭有才火了，2024新媒体机会在哪？#新媒体 #机会 #商业思维 #业绩 #创业</t>
+          <t>希望补贴多年的新能源车企真的能跑出来几个好企业 #新能源车#特斯拉#产业扶持#电动汽车</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7372037059978005775</t>
+          <t>https://www.douyin.com/video/7228921615843609871</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/fb889292a94046ac94c2989a70b57f39~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=xfSda84qzaT7MFrfPrJzsvXsbfU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/8dfc21a049584cdf93aa6209f6e772bd~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=IcxBRWEzvx%2BvsC76PHg8RdKfnlU%3D</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.5万</t>
+          <t>1816</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>这世界有那么多人，而我们缘分不浅，620见#张琦 #创业 #商业 #生意 #缘分</t>
+          <t>本性善良的人都晚熟@微信创作者 #善良#晚熟#莫言#成熟#人生</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371863206496668968</t>
+          <t>https://www.douyin.com/video/7228434155820944640</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/5a0e2b99006640c0bba5255b16e9cbc0~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=p40ZehfS9v3Z6so4wPOoZCH5lYc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/7d0ea426dd3e4e588bd9dce13314219f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=yH8b9TcxxySpDca0rgHxPC4b08I%3D</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>904</t>
+          <t>1287</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫事件反转，告诉了我们什么#情感共鸣 #胖猫 #价值观 #格局 #思考</t>
+          <t>不可思议！插队竟然如此理直气壮。人首先应该遵守规则制度，再来谈其他#五一长假#旅游#插队#规则#不好惹</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371744025277254946</t>
+          <t>https://www.douyin.com/video/7228182119825034531</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/c3a65becd85c474a9b4e66b61352d98e~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=ykzz1kjuNAQxf6QrPxsVVzLlauM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/d1b82e6b37684a1fa2a05e93ed799823~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Vl8YjqXr1bhwQNTvf756jLqa6ds%3D</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2246</t>
+          <t>462</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>泼天流量为何砸中郭有才#郭有才 #商业思维 #生意 #流量 #创业</t>
+          <t>五一劳动节劳动感慨。#五一#劳动#职业#遵守规定#守时</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371448571071073551</t>
+          <t>https://www.douyin.com/video/7227442113661685007</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/2545a5691c1c403b9fefb63baf72fd6e~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=GnzBxpnay1iMt6p0vMoghuMT5Iw%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/2dc00eea64db401e80aa79cf9b21c709~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=NwyD0SeOZqWBN%2FkqTRzDNkSil2o%3D</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>6.5万</t>
+          <t>949</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>从汪峰宣布新恋情，谈年轻人的恋爱观#汪峰 #恋爱观 #情感 #爱情 #婚恋</t>
+          <t>人人都是天才#天才 #成长 #人生 #认知</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371429477169040680</t>
+          <t>https://www.douyin.com/video/7227069251259993378</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/8cf58ae1095d434ab5812841fe4427f7~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=7JNwn%2Bdenxn5tUByzABZwyWHsz8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/cd210bc9227941aeb8817940359745ff~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=SR8DceFZsqy4s%2F72IyhHxDXjPM0%3D</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5407</t>
+          <t>720</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>其实要获得幸福，真的很简单#幸福 #情感 #认知 #美食 #人生</t>
+          <t>人脉到底有没有用？有的人有了也没用，有的人根本不需要 #人脉#人际关系#管理 #商业</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371377895945571619</t>
+          <t>https://www.douyin.com/video/7226325098909797667</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/a2b1d4c1b67246ad848242a5517cfa8f~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=J2TJpDsAyt7lJRRPNxpsk%2FE8C8Y%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/c1c57423159044c7b17c2a69ee9a00b2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=TjtxnzfKW6xpdwkZ1a7MswwJoBY%3D</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3466</t>
+          <t>2909</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>看不懂趋势，你将再错过10年#企业 #商业思维 #趋势 #认知 #商机</t>
+          <t>你到底该不该去考研？多角度详细解读了一下这个问题 #考研#找工作#应聘#养活自己就业</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371357567928356130</t>
+          <t>https://www.douyin.com/video/7225955395867643176</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/9af6d21587c143438edc0210a2cd0f84~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=5l3sV6KUwoovCMX%2FqdxC%2FlahPwM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/01813f70ee884b6f8d38efb873947d6f~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=C06Qm4OK4h7GlpUG2VO2Au9QUq4%3D</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1531</t>
+          <t>4984</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>如何克服你上台发言紧张 ？#发言紧张 #怯场 #上台 #提升口才 #发言</t>
+          <t>你见不得别人好，别人未必不好，但你肯定不好#马斯克#星链#特斯拉#火箭#航空航天</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371099588125576483</t>
+          <t>https://www.douyin.com/video/7225578493810199808</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/49b76557a25c4eac96ca0f78413836f2~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=Dvo6t2m1CZ2BIWZvixon3smSQ%2FA%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/bf355fbfa6ac4995b431780c3ab4c208~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=oZ5GhMAOYQlRxbgWlKINPKNLwXs%3D</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>歌手2024翻红，我们学到了什么？#歌手 #新商业 #张杰 #商业思维 #传播</t>
+          <t>这条视频该看看 #成长 #自我觉醒#本我#自我#管理</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371072283206634786</t>
+          <t>https://www.douyin.com/video/7225212100744858920</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://p96-sign.douyinpic.com/tos-cn-i-dy/41c17e6e7f2342328cf61114f3d68d80~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=X0WVC2BIkYNqStGIU0zt1KcLq3I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/bd2f4c18199249d8963d40b9e2f15690~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=HZDWinKxPWLEWD7P9p8MN0r%2Beko%3D</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8句有才有趣的敬酒词，再也不用干瞪眼了#敬酒词 #提升口才 #高情商说话技巧 #饭局 #口才</t>
+          <t>来看看读书和不读书到底有什么区别。#世界读书日#读书#成长 #人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7371053495278980352</t>
+          <t>https://www.douyin.com/video/7224468995565571328</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/d4b64b2da1fb42f69a866937d021779f~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=MxGWm9G5%2FCvu2EwcatcoUpISdhg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/27d2a8238d09490f93c5f8fd5caa2aaf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=S80b6bCFj4E6xJTDx1ZuA8cJ8nM%3D</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.8万</t>
+          <t>624</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>高考是人生最好的“成人礼”#高考 #人生 #成人 #认知 #思维</t>
+          <t>这个公共真是史诗级水平了。 #宝马#上海车展#豪车#公关#冰淇淋</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7370998699536813346</t>
+          <t>https://www.douyin.com/video/7224096188180483363</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://p26-sign.douyinpic.com/tos-cn-i-dy/b0fd12a37f914bbabbc24fb7036309f7~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=tbTKWFTE%2FpBJtvCSdrWF3prAfo8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/0e43124edc48496d8c0d8763d0c8800e~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=BnXVRHSIVbjUmADxHUvq%2B7RVGac%3D</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>465</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>520祝你身旁有伴,人生小满胜万全#520 #人生小满 #情感共鸣 #张琦 #爱自己</t>
+          <t>宝马事件的背后是宝马公司对待消费者一贯的傲慢，谁让他们如此傲慢的。#上海车展#宝马#冰淇淋#公关#洋品牌</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7370933919316741391</t>
+          <t>https://www.douyin.com/video/7223723898368478498</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://p96-sign.douyinpic.com/tos-cn-i-dy/0c81a4d9dd0648ff90c8bfa275e02fd1~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=pI%2BPGjzrjYpWjJhvGSWBAxK0QqY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/df32bdf0e3584da3be956d592844ba4b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Jn1KQHFusffq3kaBeBZpyUCVNpA%3D</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.5万</t>
+          <t>973</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>让自己发光，人都变好看了#个人成长 #认知 #改变 #思维 #个人提升</t>
+          <t>这个问题很多人关心，答案在视频里。 #安全感#存钱#人生 #管理</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7370724775330598144</t>
+          <t>https://www.douyin.com/video/7223347467679501568</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/56e9fc05b9bd4554855599794c4dbeb1~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=GsRloVMU5rpdzCA5fi0gXgDb3os%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/38976a48b63f4159a3c0cc2c35677aaf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4hYAvh22o3mqixT0CbtGa2UpB8I%3D</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>睡前看一遍，情商突飞猛进#高情商说话技巧 #提升口才 #表达 #说话 #情商</t>
+          <t>那个男人真的不善良，对自己的伴侣真狠@微信创作者 #女生吃面崩溃#煤气灯效应#崩溃#渣男#自私</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7370706565344562472</t>
+          <t>https://www.douyin.com/video/7222992992636882176</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/6ddeb9f73c624bf7b204d5b9a58d8c5a~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=KNyrjjinn1bRsZWLjMLEl32rSKo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/49f0f64f5673442390570adc5ebaff8d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=9BIzSA45sCHgXGqMnJDrsXmMEvI%3D</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8.5万</t>
+          <t>2069</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>一首歌带火一座城，这次是郭有才的诺言#郭有才 #商业思维 #诺言 #山东菏泽 #城市</t>
+          <t>不是三观不合，而是遇上了渣男。#女生吃面崩溃#煤气灯效应#崩溃#渣男#自私</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7370364558596148520</t>
+          <t>https://www.douyin.com/video/7221501355335240975</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://p9-sign.douyinpic.com/tos-cn-i-dy/b78cc4887ccb4771aec00e09f0dae21a~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=AAk5jAIQ8gHtPXq9xWbhpXl0kUU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/ee94aea16c654be4a1ef76223a919296~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=rk7eefpPk%2FgQU8o7tQzvwL9dOxQ%3D</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6281</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>高情商爱说的10句话，专治嘴笨人缘开挂#高情商说话技巧 #提升口才 #高情商表达 #嘴笨 #口才</t>
+          <t>能扛事就已经是才华横溢了 #扛事#自律#人生</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7370346822323178767</t>
+          <t>https://www.douyin.com/video/7221128283885227279</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/d7c1a906f3574b06936213c7f2cd2dbe~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=h0bbynoEgDc2r5nkWreRklSrnQU%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/686368465fb94383a4b9d946257b0564~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=P6vALewAaoxrFUP8sus9EgB2Ejc%3D</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6.4万</t>
+          <t>1859</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>房子还值不值得买给你3点建议#买房 #商业思维 #投资 #认知 #商业</t>
+          <t>想做出点事业这五样东西必须丢掉 #发财#生意#创业#事业#成功</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7370335415003335970</t>
+          <t>https://www.douyin.com/video/7220760878793116928</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/0332241d17f0488cb5d25c6e6c9e138d~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=4qu0J5BhCFO8WwR2%2BjlaNMeuyVg%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/ef1052ac18c347c09cc409a9251b1a7d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=hVa45ao5f6oCU02VjvWmVvb76AY%3D</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1.4万</t>
+          <t>3136</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>女人35岁没人要应该怎么办#35岁 #情感共鸣 #认知</t>
+          <t>爱占便宜的人最终其实都占不到便宜，而愿意吃亏的人最终也很难吃亏…#占便宜#吃亏#成长 #人生 #</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7370317261690703119</t>
+          <t>https://www.douyin.com/video/7220025551791213858</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/ef57af31bab8471ab1df907154f51e59~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=e8Ioxq8T7DnCyRDOwb%2Fm1ia5KVk%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/c68f8bab7f98428b87c1dcab63898e68~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=gBmJwRSjMyGOMTYFsiWhVXTby%2F0%3D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>3.1万</t>
+          <t>689</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>任何一个组织你都有这4种人#企业 #商业思维 #团队 #强者思维 #认知</t>
+          <t>这个公司其实大家都很熟悉，干的漂亮 #Temu#跨境电商#出海#多多</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369958342057266484</t>
+          <t>https://www.douyin.com/video/7219642656429788431</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/c6adb7f8324a45e996ca92da5a16995e~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=LqC9nRzX45Nb74poghfyM5dwlXM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/37491065f0ba435a913aac0254e0eae0~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=2FZw1gt1tvKl6%2BFwxLie5I8oxKo%3D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>3541</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>谈容易的恋爱，做难做的事业#认知 #思维 #女性成长 #事业 #恋爱</t>
+          <t>特斯拉没有机会了吗？我也搞不懂了，你来看看吧#特斯拉#马斯克#电动汽车#蔚来#李斌</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369947024709422336</t>
+          <t>https://www.douyin.com/video/7219278080597183796</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/02ab4e29ccd440c7b4eeb8f208cb2648~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=fLjCzB7%2FQhTl0BfEmJV%2FCyJmnM0%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/37d24d1f8a204068ab05766260275049~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=VXw2xAddVV1NJVQW3GNUfBkHsRU%3D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>8457</t>
+          <t>418</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>歌手摇人榜第一，雷军逆袭乐坛？#歌手 #雷军 #商业思维 #认知 #新媒体</t>
+          <t>恶习之中赌博最可怕！远离赌博。 #张继科#赌博#乒乓球#景甜#世界冠军</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369903320430857487</t>
+          <t>https://www.douyin.com/video/7218525968711961871</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/237513d9745644c392c5266bfd0faba2~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=hmHqctUW3D9CPVN9gRV84Ythcck%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/8995954644264bbb94b370367b05384b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=IfqL7sMGUJgCIvZSotcK4Rd1IiI%3D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1.6万</t>
+          <t>1.4万</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>普通女孩掌握3招，做一场出色的演讲#演讲 #高情商说话技巧 #提升口才 #高情商表达 #上台发言</t>
+          <t>同样是乒乓世界冠军，张继科的商业价值远超其他人。 #张继科#乒乓球#景甜#明星#世界冠军</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369878721047563560</t>
+          <t>https://www.douyin.com/video/7217443431675645219</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/508f0053e9e64406a1a8f05aa80c32e5~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=ky45%2B%2Fzqg4NL0SDZAfzF6qiaeF4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/b3458f03a4e242758b5110185ff6b94a~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=rx5bCJPznHnCFMaJcngZCY2Erbk%3D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2273</t>
+          <t>837</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>什么是为人处世的最高境界#为人处世 #人性 #思维 #认知 #商业思维</t>
+          <t>我们电动车老板讲话还是蛮牛的。 #马斯克#特斯拉#电动汽车#蔚来</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369613563981221172</t>
+          <t>https://www.douyin.com/video/7217043578357288244</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/14a185f61d9745dd8f9afa6b494f3a9d~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=1qyx2eUCSGszo17A0nlK1%2F3%2BKFI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/0c57897960294d1193049d120e2dbb05~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=n11J0GTmsnhUya6tbxdfX6L5GOM%3D</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>1869</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>真实的董明珠，如何面对误解#董明珠 #格局 #认知 #企业文化 #商业思维</t>
+          <t>雷军还是一个谦虚的企业家。#马斯克#雷军#特斯拉#小米#电动汽车</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369598681701502248</t>
+          <t>https://www.douyin.com/video/7216313631435181327</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/8a1071be51e04dc4abdb9a3efc938cc6~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=ChO82TQ3veKyIPgPCCb0QQclhdQ%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/e0ec8068733f4b13a10b2e897a14aaaf~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=toJ6RmsGPwD7HRmHBn7sZ26JRHU%3D</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1072</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>董明珠：富贵不癫，贫穷不卑#董明珠 #认知 #格局 #企业家 #思维</t>
+          <t>很多人并没有意识到ChatGPT已经可以看到的潜在风险。 #马斯克#ChatGPT#OpenAI#人工智能萧大业</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369589357835013416</t>
+          <t>https://www.douyin.com/video/7215550716448951592</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://p96-sign.douyinpic.com/tos-cn-i-dy/20c6eb0643e04797b9e6a849722d6a21~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=pOMiS3t%2FXIkukdfaKWckHfJP0pY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/02c667cad9644603a340b9ac10eeacec~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=jZEqKl%2Bf69ud0WIcT76mSCCxF2M%3D</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>3090</t>
+          <t>939</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>成大事者，你得精力旺盛#人性 #人生 #认知 #精力旺盛 #成大事</t>
+          <t>看了就完全明白了#chatgtp #硅谷openAI#萧大业</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369580089001970959</t>
+          <t>https://www.douyin.com/video/7214842080739331328</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/7e61533c9bf14f1b9c2dbd6d161d8265~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=z%2BFBI7ZAbG%2FtJ67i0FCTU%2BtKOA8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/16e5552ab1e5438e99759b262ec9af08~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Vj8NSnDLJKdG1YPQTcXgUksN6%2BI%3D</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>1362</t>
+          <t>711</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>杭州放开无人驾驶，给了我们什么启示#无人驾驶 #商业思维 #生意 #创业 #科技</t>
+          <t>塞翁失马焉知非福#塞翁失马#股市#萧大业</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369527269615783202</t>
+          <t>https://www.douyin.com/video/7214450168345775400</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/763f63f0a9eb44698ecee8f932b3003f~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=JrFf4cVB%2BCWhkhmXUHeKEuvAuUo%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/eddc4a27b3894f208ff3df63402df8b5~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=8KVouxWx4EMywUWoVwo%2FzSGsyoU%3D</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>559</t>
+          <t>1670</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>会说话的女生都会的8个高情商说话技巧#高情商说话技巧 #会说话 #提升口才 #高情商表达 #口才</t>
+          <t>格局大了，再大的是也是小事，格局小了，再小的事也是大事。#格局#管理#领导力#萧大业</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369251683261484303</t>
+          <t>https://www.douyin.com/video/7214082278220188928</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/9125247fa9ba471884165c35548b1289~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=%2BQHwm5Cw44rqVSqk7HMo9icKamc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/0634c2afbf7e45e490e09d0c421fa96b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=WZstkBsawhYIyJ7gxpjQFK2cbbA%3D</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>741</t>
+          <t>948</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>董明珠洛邑古城汉服扮相惊艳众人#董明珠 #汉服 #商业思维</t>
+          <t>一个先锋作家为何会如此愚昧？#马原#城堡#马格#人生#萧大业</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369239255480061184</t>
+          <t>https://www.douyin.com/video/7213680572894350607</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://p96-sign.douyinpic.com/tos-cn-i-dy/51f2e457a85b4a7d89de47049ccfc7db~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=Mj7QkMULFotb1pITQIZTdxO4gls%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/30c19ff7ada4476197f58b90b5e8b031~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=VOsKisyY3WaJy78qo5WNnp5MEro%3D</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>4717</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>不管你多少岁，不要贪这3样#口才 #表达 #演讲 #说话 #高情商</t>
+          <t>弱化英语教学甚至取消英语教学最大的受害者到底是谁？#英语#教育#成长 #人生 #萧大业</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369200172749933859</t>
+          <t>https://www.douyin.com/video/7213336264190233890</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://p26-sign.douyinpic.com/tos-cn-i-dy/b86c65ad8d424cf19cb605ec323c6f2a~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=Q6APVmegBqrdDhcF%2BBENXiTVxPs%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/3a620981452d42e5bd77593e91084c43~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ieYjkW0l9hkdS3cH8bVWVEoKdKc%3D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>1332</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>董姐回应玫瑰空调被吐槽#董明珠 #商业思维 #玫瑰空调 #张琦 #创业</t>
+          <t>做人有些禁忌你是一定要知道的，不然自己都不知道怎么衰的。 #人生#做人#管理#人性#萧大业</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369188990110485795</t>
+          <t>https://www.douyin.com/video/7212969446283988258</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/b8f3ca23c9584278868e505b2d450b3a~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=C22u4qZzBUVcXR0eMhaCTw3jbDc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/422f9e1f493e480387e81fec44ff0c37~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Tc8iiF8dceimyGAYTuHJdB6jJCE%3D</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>如何保持好的状态？董姐给你8个字！#董明珠 #状态 #年轻 #女性成长 #个人成长</t>
+          <t>高手其实有一个共同的特点。#情绪#高手#萧大业</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369170393908792611</t>
+          <t>https://www.douyin.com/video/7212598859124493583</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/3c42eb093e1c4e049ac4d9370ffa48ae~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=aWkSNlaLIO1ve%2F2hTf4MtEP3DNc%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/e4aa13cccd3b40d783be6bd01104835d~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lLpwr6vwDcuuf8lZhtNFMXxglvU%3D</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>1172</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>格力好主播pk赛，前十可参加董姐家宴#格力 #主播 #董明珠 #商业思维 #创业</t>
+          <t>这个故事直播有什么启发？#萧大业#分配#管理</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7369128486641995023</t>
+          <t>https://www.douyin.com/video/7211854355866160384</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/3be782cd4c6c4e67928e555932fd2e14~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=i%2F%2Bv7FjoSEoC4VcgwRjJI7kFicI%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/75ebdf274ea44e23a74c9fe667023788~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BOhYyIF6yTu%2BUNitgTu9fFJ6ZkM%3D</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2034</t>
+          <t>1568</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>格力手机开机画面为什么是董明珠#格力手机 #董明珠 #商业 #商业思维 #企业</t>
+          <t>太牛了[强] #华为#余承东#牛#萧大业</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368871637279706368</t>
+          <t>https://www.douyin.com/video/7210737912017653032</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://p96-sign.douyinpic.com/tos-cn-i-dy/fd1b5fd239dd412888659760a6feb35c~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=CO2D0TU2tB%2B%2BsOyJcMUHN%2B2NkcM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/a5aa3033e2e3442b9d16bd3e98d67260~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=WGL%2Fow6xsPryDdAQf0HvCzocSwM%3D</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>979</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>会做生意的女人，都吃透了这3句话#生意 #女性成长 #创业 #口才 #会说话</t>
+          <t>校友承诺捐款1100万未兑现，中国矿业大学起诉他，成了老赖 #捐赠#中国矿业大学#吴幽#慈善公益#萧大业</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368862639805500706</t>
+          <t>https://www.douyin.com/video/7210363666091298083</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/6241f6372f954409b18f75bd593f48f6~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=gdo15RR3dU8fOfNtadvqLv%2BGO3o%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/34730f953b824aebbe9308b3671b76d6~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=d1em8sEQmkfIz9zKxaaCD51v6f0%3D</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1.2万</t>
+          <t>801</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>每次和董姐见面都好开心啊#董明珠 #张琦 #格力 #珠海 #商业思维</t>
+          <t>硅谷银行倒闭到底怎么回事#硅谷银行#加息#美联储#经济#萧大业</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368836239392279823</t>
+          <t>https://www.douyin.com/video/7209999869619080500</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://p11-sign.douyinpic.com/tos-cn-i-dy/423035bfc8874f06a2794e2684d683bb~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=b01IMzAToQ909%2F9Q5op6K0lDhk4%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/94b006b0662844ae9a46c53028882e94~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Zf2Tcs6ZE29mRBnq97x1VTm4rEE%3D</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1723</t>
+          <t>9697</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19年只做教育这一件事#商业教育 #商业思维 #创业 #生意 #张琦</t>
+          <t>不以赚钱为第一目的，绝不代表赚不到钱，致力于改变世界的企业，最终会赚到最多的钱#特斯拉#新能源汽车#改变世界#萧大业</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368796292404759843</t>
+          <t>https://www.douyin.com/video/7209642255550876943</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/f84d1ed694814a8e9f07469a0afea4b7~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=DA8mC2Vp2Eldv2d2ZYRsBQw07jc%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/dbe481f58abc4da494a03974c5ab2113~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=r%2BYSuStqpXEKyQSOQxRMPmsU3YE%3D</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>1278</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>网友玩梗新高度，歌手2024为什么爆火#歌手 #那英 #韩红 #新媒体 #商业思维</t>
+          <t>马斯克说任何想靠造车赚钱的都是傻子，一起来看看他怎么说… #马斯克#特斯拉#新能源汽车#汽车降价#萧大业</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368773290053143808</t>
+          <t>https://www.douyin.com/video/7209256540275084596</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://p3-sign.douyinpic.com/tos-cn-i-dy/de036ae197b547acaf56a9776891a69b~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=xze%2BSfyA5OnzydGxHrKC0sOsS68%3D</t>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813c001/5a7fd6d071864c6fb1b7aa4330776039~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=xujrdHJGOyQvjZOsfVAT%2B0DxCeM%3D</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>629</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>背背佳蒋宇飞超真实评价张琦#蒋宇飞 #商业 #教育 #商业思维 #企业</t>
+          <t>专家们还是多研究一下如何从社会制度方面去保障每个人老有所依为好 #养老#老有所依#退休#社会#萧大业</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368420521454619956</t>
+          <t>https://www.douyin.com/video/7208874166131445027</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://p96-sign.douyinpic.com/tos-cn-i-dy/730f24e41ce0464b8b0d64f4558e4376~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=DkWZ9yiARt2AOBGINMgZyipOoD8%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/ec56d41bc56e4543a165689572057afb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BacwG5N1XEPqVp0WEOa51Acvouw%3D</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>1.0万</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>让你瞬间清醒的话，越早知道越好#人生 #情感共鸣 #认知 #思维 #感悟</t>
+          <t>马斯克每天赚3亿，但无房无游艇不度假，他到底怎么想的？#马斯克#特斯拉#电动汽车#能源#萧大业</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368131706659818787</t>
+          <t>https://www.douyin.com/video/7208515934338796852</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/ee955880504743ae9f2d96ef981da3ca~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=a%2BeRwT5TILi%2FCsWtIcCF3nXT9QM%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/d54b4b24cb03495b93b5196efa2df356~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wDvH4MCoTgW%2FPqYwpma4KgiYbq8%3D</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>你敢不敢做这6件事彻底改变自己#改变 #认知 #口才 #表达 #看书</t>
+          <t>很有趣的故事，发人深省的观点 #教育#文案#语文#萧大业#成长</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368146200937188660</t>
+          <t>https://www.douyin.com/video/7208146819379940623</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://p5-sign.douyinpic.com/tos-cn-i-dy/b909d19257d54919972d25e9a1f2d3d2~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=ZuHNXta9nS%2FkEV%2FDaNkMEIIzS3I%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/860f80fdc5014be7b88f8fdfca77fedb~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RpJMO%2Bgr%2F3If6Oqimz7dphUX7wE%3D</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5.0万</t>
+          <t>1.5万</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>不做恋爱脑，搞钱需趁早#赚钱 #认知 #恋爱脑 #个人成长 #女性成长</t>
+          <t>马斯克造车理念和我们的车企完全不同，看完你就明白了。 #马斯克#特斯拉#电动汽车#比亚迪#萧大业</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368128421093707060</t>
+          <t>https://www.douyin.com/video/7207785556758007074</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://p26-sign.douyinpic.com/tos-cn-i-dy/5759cc75708e41058824619ed54c36e4~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=uy1hMtGEkf8BSmWbCj5j600qz%2BY%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/8f84567ff5844ad0af9b3818d5a41abe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=nkMBs%2FaljMK2jPr1wapciCP89iA%3D</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>9940</t>
+          <t>424</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>双减之下危机和机会并存#双减 #机会 #商业思维 #创业 #商机</t>
+          <t>无论如何，迈出了第一步总是好的 #精简人员#马斯克#机构改革方案#萧大业</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.douyin.com/video/7368059464622132515</t>
+          <t>https://www.douyin.com/video/7207401581975751988</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://p9-sign.douyinpic.com/tos-cn-i-dy/d343d2aa72b349cba40f63eec9daecbd~noop.jpeg?biz_tag=aweme_video&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=optimized_cover&amp;se=false&amp;x-expires=1737295200&amp;x-signature=z1wb3J4oz2PLC0u6IGQHQEfG4wI%3D</t>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/0770d54974294b8fa70166690bc082ab~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ANl%2Bp%2Bzbtl2I6ZRYfDz32wUrn9o%3D</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2126</t>
+          <t>1442</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>给想搞钱的女生5条建议#商业 #认知 #思维 #女性成长 #个人提升</t>
+          <t>想进大学教书当老师没个博士肯定没戏，上户口打分博士学士也完全不一样，简直有点喂学历论了，来看看马斯克怎么看学历。#马斯克#特斯拉#学历#MBA#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7207032163613674752</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813/e03cb972b48d4eff8716a70b064865e2~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BDtTpAqF3oGJE7VLHLWuqgBW5VQ%3D</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>10.7万</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>马斯克有没有胸怀，大不大气，看过就知道了。#马斯克#特斯拉#专利#新能源汽车#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7206654764195515683</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/d34d56ec3983425289d47f87196ed590~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=apKKAE%2Fa6yOXLVWzsKgGbzklxzk%3D</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>7779</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>落后的员工将成为伟大事业的拖累，必须除之后快，否则会浪费大家的时间和精力。 #马斯克#特斯拉#管理#成长#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7206285405409299746</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-i-0813/beced5f4c1cd4094b3a466474dc71e38~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=JzPcnSC10lv8wFRHA8OuYWszBec%3D</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1.5万</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>看着马斯克，感觉自己就是燕雀 #马斯克#特斯拉#能源#梦想#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7205913187978349859</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-i-0813c001/c6f4cb6705eb460e8fd3a98e90f1d57b~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=%2BtnJS6B9iYof5ztcSK7u6hNR%2FQg%3D</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>这批人当年都是响应号召，只生一个，为国家的计划生育政策做出了牺牲和贡献。#独生子女#养老#政策#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7205543804806384911</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ost3gYa7aB5zlPnEB0A8Of9fQbdDHQDCAFvNeA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=t0JSX18PpdWMIcPq1IOIddjj%2FTw%3D</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>6.3万</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>一个可以把火箭发射到火星，然后还能回收的人，为什么总是怀疑只有他们做不好刹车？ #特斯拉#马斯克#电动汽车#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7205176343150054656</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oU2enbIWDDu0gb7ZLFPA8EK9QS2eAC88fCtfEu~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=qvWs3gMPoxO8z5yXbEgs5AI9hEI%3D</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>7868</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>梅西当选国际足联世界足球先生，从他发言里可以看到他的为人#梅西#足球#国际足联#世界足球先生#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7204779895656877364</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooT6DnhIEAgjLSfNHhfN8r30wSKmSAA9zBk9BI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=RrOCGA2trlPIQC4fPZ5wQEAOwH8%3D</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>903</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>教育的目的是让学生摆脱现实的奴役，而非适应现实 #北大女生#上野千鹤子#教育#成长 #萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7204044565819428130</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oc5jJfB9NzjLfiAQ6gTdA8G1Et6ZORAhIaIFPB~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=P4OXwkXMGBaBN51AyP1bVCfSDjQ%3D</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>有人说她们看了不尬，觉得真诚。那是你们的感觉，我来说说为什么尬 #北大女生#上野千鹤子#女性主义#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7203319699814337807</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAIA3ejR1Bt1A6n4QbLjdNCgDaVGI9HQNfSA9R~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=HifL22CxAOzjCxe22k7YW3gWnwU%3D</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4381</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>三位北大女生对谈日本社会学家上野千鹤子教授聊“女性主义”，听了感觉很尬…#北大女生#女性主义者#上野千鹤子#结婚#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7202931079718767906</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okrSx8E20nPX17Dc5AqrA82tIbDefDCDjeQAeC~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fKzCVsgH4mm8SSyT6vmD8byJpOk%3D</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>1706</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>愤怒并不能成事，温柔才更有力量。生气愤怒是人的本能，但掌控脾气却是人的本事。#发怒#温柔#情绪#成长 #萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7202578688687328546</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oABi9mnZ9HLbLwDlpjefNq6DCob8IAjKAQgAlD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=AvwJ%2B8hjajmvdWa1h3vQM4GcKrQ%3D</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>人生就和这打牌一样，发牌的是上帝。不管你名下的牌是好是坏，都要力争把自己的牌打到最好的效果#麻将#人生#打牌#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7202226674962844943</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/osrlENhzdQtAXGXBcjbzA7nIwlfjZ9AeX5Bwsg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=hDUtuo6hbOmDwhB3ltwaAgLQwhc%3D</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>肯尊重小人物，才配称得上是大人物。#尊重#松下幸之助#人际关系#人生#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7201835490268466467</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooe9g8D75bMsyyNzAe7vDDgEnbAZ8ABY5BZjgI~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Z%2FRGWNGBcYsEBicVulkw7hWY2Fg%3D</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>北京市政府授予董宇辉平谷人才奖，网络上说的奖品可能吸引着每一位北漂，但随后就辟谣了。#董宇辉#东方甄选#直播带货#户口#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7200712049754737954</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUmPDAAe8EIQv9Cgv1A7FFIhqfEpnbBBNXvjAu~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=L0CBACYhDwows7kiGaZGs0BOHl0%3D</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>说话还是很有讲究的，会说话和不会说话差别很大… #说话#沟通#成长 #人际关系#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7200346116284632320</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ostxCJeXA2z9LsshyxfJCEDKAGdAIgBJmrBNIA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=oGlqij6nZVZylnUOKvQc41ZqzFI%3D</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>这个新闻每过几年改个人名就可以循环推送一次，其他字看来一个都不用改。#足球#陈戌源#中国足协#贪污#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7199981923819719976</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oQnAkWn7806k6eWmu9IUABBANNfIQNCbgj3cxD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=ED9UxiER%2BwRZng%2BshvSZKyUnqok%3D</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>我们中国也有很牛的企业家，扎扎实实做实业，做出了二个细分领域世界第一的企业#杉杉股份#郑永刚#宁波#浙商#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7199603363808382248</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAz7qSNCB0RRxfnAmOFBAAN7h9IAIEmgepngBh~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=xY16lgeHXW%2BcNPBmaI94Q%2BGNpuM%3D</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>ChatGPT会让很多人失业，这是真的！来看看就知道了 #ChatGPT#AI#人工智能#失业#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7198868569914985768</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAGe7wQXHha2BRBbECz428jHArPKneAiCA2e1i~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=sYPEn8yKFRmo7TvX0nfWWH9qGNM%3D</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>来看看外星人马斯克怎么看中国。#马斯克#特斯拉#中国#微信#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7198496644566879488</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogEjQYN9wAcjt3nlALgew5SfIbZ5jQDBcDIbMA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=NCbeH7CVl34kn2Li5jYPM0p4Fg8%3D</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>不知道你是否担心？马斯克很担心。#ChatGPT#人工智能#马斯克#马云#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7198121351352306984</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oMheLTIkDnHyGJzSBgtIfyANB6E4TO8KAm8x3A~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=UAH08ujK2d3pm3NaMZlq5Ugp1C0%3D</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>未来我们每个人用ChatGPT就像带了一个私人助理，随时可以和他对话，任何问题他都会给你解决方案 #ChatGPT#人工智能#谷歌#科技#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7197750472319569192</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o0nj0Q2gP6FeiEFNAH2fAKFfe4EOYPCDkv82tH~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Pvw%2BdvEyT7s0BQajgSWAe0RZNQ0%3D</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1255</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>二国企业发展方向不同，企业家想的也不同，企业受到的约束也不同…#Chat CPT#外卖#微软#人工智能#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7197378235825507619</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocmNyAB6EhS7WVbAROxAizWB8IuENM2tgAAfLe~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=wjD9opg%2BFH5KnVq3XfFosAkiwQU%3D</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>高启强有一点才是最厉害的，普通人根本不可能做到 #狂飙#高启强#张颂文#人生#管理</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7196637229459049762</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oUQnj3CPPpg5ABKq5EaAChNADGN3ft3Iwgbe9l~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=dbFoQK7ugn9pZtPQZWAGebpcrWI%3D</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2610</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>到底谁强？怎么有点糊涂了？ #特斯拉#马斯克#蔚来#李斌#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7196263887673609512</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oQB38eIAaIAeSDIhuX7FTvblycnVBCGQyDeHF8~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Y1pIjrtrwEd%2B%2BpAWWQjv1Cj4OKU%3D</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>他把这个人物步步为营，在任何危机时刻都沉着大气，处变不惊的大哥特质拿捏的死死的。 #狂飙#张颂文#高启强#人生#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7195900364531453199</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oo22QDHgk3gAegH5fkEQg7TeAG5UCPAfcFP0JH~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=zyJ9Q8WIEqOgFGRAQbYmpGQiGMU%3D</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>有的人心里装着宇宙，有的人心里却只装了金钱… #特斯拉#马斯克#联想#傲慢#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7195153633732807970</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oo7AcBhSiLzmeEg1k7iRfBaANCNB7xIAUtEBVJ~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lOcbE2JX63NlOMlLOvRWlFoMbqM%3D</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>专家为刺激消费又提出了针对某些存款征税的建议，你同意吗？ #专家#刺激消费#拉动经济#存款#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7194784545009323316</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/okb2ITNeVAHILDzxAjgfU7nGEtAqxchBXBEHZA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=vSLaVvJIssIE79umPZscJGt9LjY%3D</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1622</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>一个为把成本降到原材料+知识产权价格，一个为把车卖到四五十万开心不已。#马斯克#特斯拉#电动汽车#成本#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7194415144309411072</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/oUpsnBiyxrAy2PbXBDfhgizcA6AeBliIEWtIN9~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=m9BEXW2NjzblVUw8yd%2FlWlIC2C0%3D</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1.8万</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>他的故事匪夷所思但的确精彩绝伦，我觉得他的诞生就是来改变世界的 #马斯克#特斯拉#创业#人生#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7194045283183988002</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/o8BrebzY6HztClN5Wy8wNU3hB4NfEAxoAIgAhq~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=FIVWbT0yXRg%2BQT1zcXrr01K6qhg%3D</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3848</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>对我们最狠的，割我们韭菜最凶的往往是自己人… #马斯克#特斯拉#降价#电动汽车#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7193370755697003816</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ok1ANNf1ALwBfJaH7y4CBUDyKDQcICenyO5pbn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=TtF4pD5jKeVJOZEr9360S%2Bip4Io%3D</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>春节档电影，我义无反顾地选择了《流浪地球》原因很简单… #《流浪地球2》#三体#刘慈欣#电影#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7192186979365178664</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/owCEAjPnl8M1oB4EQHDnZfbkgiqkAemHBafK77~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=QJ9SWt25Aj72942NKI2qkQddcxw%3D</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>697</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>这个世界真的需要专注、存粹、自律和谦卑，一个人真正学会了这些，才能凤凰涅槃脱颖而出。#梅西#足球#世界杯#阿根廷#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7191817615306722600</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oAYQeOsUnQWAEcUfAKeCa17uOCbkHhBIDgAIBn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=VkrOIq3yi8fzDrOFP%2F9uTBVndBM%3D</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>看看这个世界还有多少童心未泯，高兴就唱歌，快乐就跳舞的人们，愿这些画面给你的春节增添更多的回忆和希望，#过年#天真#快乐#人生#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7191435047671581987</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocLhXHGBEODANDzBUNrzNA59veAfBVRgHqDjIO~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lkHSsyPFr7X7EtyKFHx%2BjKErx40%3D</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>6194</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>今年春晚印象最深刻的节目 #春晚#早安隆回#袁树雄#人生#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7190700750534692131</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oUbAENhzayNAXNRBgxUKAESIEEflweA5wWBVsg~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=KUzKBhGMlmIqThxGCW4azroC124%3D</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>不管外面的风雨再大，家才是我们最温暖的避风港，一家人和和睦睦比什么都好，一家人健健康康比什么都强 #回家#过年##人生#团圆#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7190326684690746639</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oU69I7NeVABJoXzkAbgfg5BPENLkxuhBFCXEJA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lj0IztllksPXx90MprBmgMnMKSs%3D</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>中国人口61年来，首次出现负增长，人口下降85万，人口出生率断崖式下跌 #不结婚#人口负增长#管理#人生#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7189948125052734754</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oIiEINN98AIewDzRAWgfxx8OEt0AjQhBDBnGHA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=sr7WLOCe0lvfxSyAffd71X7rm10%3D</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1677</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>每个人都会犹豫，犹豫的时候怎么办？#犹豫#人生#成长#管理#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7189591679362419968</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oI9DvAWrAKfQ2D5jaoNeD9dxIBVbBEDG8gnjAy~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=3xGDXn04B9yBNIsIQ1X3JM5rnB4%3D</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5903</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>一生能有几个并肩奋斗的好兄弟？ #梅西#小罗#内马尔#足球#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7189218079971298595</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogbAu8ng8ef1xOF6y9nKABQAIlBIQNCbgjTdUD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=i%2FsqUVXVx3njlmU273afa3tTXEk%3D</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>家的味道就是饭菜的飘香，就是味蕾的记忆，就是家的温暖，就是浓浓的乡愁。 #年夜饭#过年#妈妈的味道#家#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7188845513381334312</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oABqhHeCfwjDBVe7C9IBx4Aay6AbBLJDEbhEOn~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=fKYDZRnLWQWI0nrb3mnVdubYJ94%3D</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1240</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>哈佛大学的研究结论，非常有道理，值得好好收藏，可以反复提醒自己#废材#哈佛#犹豫不决#拖延#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7188485037732547880</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/ooRTEofU8DNwcvqCACzAIB4CebxgoBTAbVhRtx~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=i31I90%2FsMeKHZeGkJvEFj6GZ05U%3D</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>618</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>销售是一个分析需求，判断需求，解决需求，满足需求的过程。 #销售#市场#需求#营销#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7188101881892326690</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ooStKfJVAJkejzMFIKRADnScvkhA4xQNgBBBEV~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=Gv6yo9tjJIM6SUm4beghjoja0vY%3D</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4.1万</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>梅西的谦虚低调，让无数球迷喜爱，真正的强者不会一味的吹嘘自己，他不但球踢得好，而且为人处世也很好。 #梅西#足球#世界杯#阿根廷#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7187360537557208320</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ocwqlxg3pD8oayljAsCiQoIebIAVuBANxnN9ve~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=4R5%2FzPukYcfiToWCrsTWW%2BXlzcg%3D</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1885</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>一个人自我觉察整合自己的过程就是改变命运的过程。#梅西#足球#世界杯#巴萨#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7186987796303711503</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://p9-pc-sign.douyinpic.com/tos-cn-p-0015/ognUjAQM9CnjgpAFIe9ABOU66Neq9vHDhrI8bE~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=GI7iUnpvKDHIvUaSh176hTct%2BOY%3D</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>花了5个亿规划这名巴西球员，却没资格上场。真的是此地人傻钱多快来…#足球#中国足协#国足#规划球员#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7186620450032602402</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/276a3e7ddd5344598a13499a9c5cdded_1673265473~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=CLxERUQeHayANlPiy4%2BzFrfbvBo%3D</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>594</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>天才也需要循循引导#教育#妈妈#清单#奖励#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7186250057715289359</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ookZsV8hzIyFi6GgAAfCNgeNpBt6xNAEh2gxA3~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=lL7u72EyUUQCxG6Ipsr2%2Fs9jbqQ%3D</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>每个孩子都需要激励，这实在是做的太棒了。 #四块糖#激励#教育#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7185879791726349608</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oU85EPAcbAE02eGEBn7Hm5CeXDBa8BLfgrVIXw~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=C7%2BMruDTy1KM76V1R%2BSksjHISxo%3D</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>快来看看你是不是马上就要起飞啦…#梅西#足球#世界杯#斯卡尼亚#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7185508877033606400</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/ogNxHSeaA4z3u4jhWDfcUElkAjbJIgBMAVBNIA~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=riuNxcqt1N0rd9AztH1fBr1vuJ8%3D</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1222</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>瓜迪奥拉其实蛮会吹的，来听听 #梅西#瓜迪奥拉#足球#萧大业</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.douyin.com/video/7185133363798330658</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://p3-pc-sign.douyinpic.com/tos-cn-p-0015/oM2Ye4C7aPHebQBCuACfAmLCI2p8Z7BHrOQoXD~tplv-dy-cropcenter:323:430.jpeg?biz_tag=pcweb_cover&amp;from=327834062&amp;lk3s=138a59ce&amp;s=PackSourceEnum_PUBLISH&amp;sc=cover&amp;se=true&amp;sh=323_430&amp;x-expires=2051488800&amp;x-signature=LuUzZ%2BPHonr%2FU6fnWlNYikbzurA%3D</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1.5万</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>巴萨为什么要放走梅西？如今后悔吗 #梅西#巴萨#世界杯 #足球#萧大业</t>
         </is>
       </c>
     </row>
